--- a/Data/modified_parameters_scenario_3/type_split_scenario.xlsx
+++ b/Data/modified_parameters_scenario_3/type_split_scenario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/Python/TEP4290_project/data/modified_parameters_scenario_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{8DC38115-D4B3-4E60-8F70-35573889C8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
